--- a/biology/Zoologie/Ctenocidaris/Ctenocidaris.xlsx
+++ b/biology/Zoologie/Ctenocidaris/Ctenocidaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenocidaris est un genre d'oursins antarctiques de la famille des Ctenocidaridae.
 </t>
@@ -511,11 +523,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins réguliers : le test (coquille) est arrondi, avec le péristome (bouche) située au centre de la face orale (inférieure) et le périprocte (appareil contenant l'anus et les pores génitaux) à l'opposé, au sommet de la face aborale (supérieure).
-A sein de sa famille, ce genre se distingue par ses radioles dentelées (sauf chez le sous-genre Eurocidaris), munies d'un col court et d'un cou bien distinct[1].
-Ce genre semble d'apparition relativement récente, et est répandu dans l'océan Antarctique[1].
+A sein de sa famille, ce genre se distingue par ses radioles dentelées (sauf chez le sous-genre Eurocidaris), munies d'un col court et d'un cou bien distinct.
+Ce genre semble d'apparition relativement récente, et est répandu dans l'océan Antarctique.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (13 novembre 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (13 novembre 2018) :
 sous-genre Ctenocidaris (Eurocidaris) Mortensen, 1909
 Ctenocidaris (Eurocidaris) nutrix (Thomson, 1876)
 Ctenocidaris aotearoa McKnight, 1974
